--- a/Assignments/Assignment1/Exercice2.xlsx
+++ b/Assignments/Assignment1/Exercice2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\COMP_5201\Assignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9123F365-3C24-4C92-9CFB-92AD89A3EF79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7B9081-C34C-4AA0-B763-F4B585E6640B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="14400" xr2:uid="{94A1CFCC-7CA6-4198-8735-DEA4645AAC08}"/>
   </bookViews>
